--- a/Recycling/Met_rec/metrec_Min_hist.xlsx
+++ b/Recycling/Met_rec/metrec_Min_hist.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.001828148245318809</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06834652134572052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.004556982737120198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0180883199407812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.08020794917900975</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>149.7782524778586</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>319.3821905193423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>402.0969642936406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>246.3967580583885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2683.299241975262</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>149.6438857506346</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>320.4666790147921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>400.4127208904678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>247.4470876959465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2718.594693468667</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.003726710238782989</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1377042529884091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.008344598116996057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.03211037934462872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1379565557657003</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.007207517820464455</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2557196596508846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01363982420830419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.05157508848110699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2095668708766048</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.01343479585288834</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4476284009652021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0202803808353138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.07647358475704819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.283977320790765</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.02440363836312863</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.7563980495179622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.02881392881362686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1086276530276123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.3528722565311957</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.04332570507641993</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.25644965760976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.04282657979852733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1543362261710204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4249762704382399</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.07483522346493532</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.061557715032545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.07263985541089202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.224625704710637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.5327471288762834</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1250022732444244</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.314642535603247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.141273526260891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3344495318767951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.7303116504897754</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.2012389884058238</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.131985948956734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2916315485398432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.504276410122325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.09193454048252</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.3121237144277829</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.476031760592056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5909510245836377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.7596742005407138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.704968449899075</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.4670926954603599</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.01253786843259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.127720539505497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.119082776314092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.643260484447544</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.6759656109578082</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12.09578906388438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.997583969062862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.571230899289389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.929203805386458</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.9482958288489903</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12.99524732643791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.276654108957711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.067294315830593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.514479533276681</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.292520139797121</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12.35111140590275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.990170433349136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.55189452719065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.295829199386407</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.71485623459733</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.60261857822864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.094431583681854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.006858040744319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.137783337690299</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.218007844443657</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.858767826139932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9.475997915137102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.448430711851918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.87191613698681</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.800080778636932</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.110714289884138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11.95818906052467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.884966995689239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12.34957247781608</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.454203641144041</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.664993287051269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14.32632368693737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.329068249142439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13.67959219105438</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.16857493460161</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.40593805792583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.46291202798648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.911908717020625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15.50437209889576</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.927876622463402</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.33199301709475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18.82052484519071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.05429227895447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19.13801508313319</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.787377942402196E-08</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.958422517845591E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.193530301843359E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.487267429540019E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.05480072879775E-06</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5.717431054253527</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17.80284618848825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23.12113845039332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.587586695135657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>26.81465252380256</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6.529028299058074</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24.5989336238755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32.43080237114859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13.69931799474818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>42.06767451318498</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.368083922308537</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>34.92823617709484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50.24191833610055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22.7106158246181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>69.65506122916955</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8.262030116312021</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50.13994033055031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>79.29736458799685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>36.68988790020704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>114.3274037302433</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9.269182909017557</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>71.02593900425607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>120.7434019174818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>55.86596522938997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>178.5479785557006</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10.48661985547506</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>97.20234259421345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>173.6077899793943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>79.21174614474158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>260.7127813211506</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12.05514894626002</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>127.0499001997481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>234.5376359667518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>104.6981706655823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>355.216600439217</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14.15912635220351</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>157.6836357100285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>297.1954412289865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>129.7031091759004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>452.8341376200043</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>17.01914017716019</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>184.7938648735985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>352.0736047376482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>150.9667458770602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>540.888450379182</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>20.87574078534515</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>204.4918476298396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>391.0036504491781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>165.7263174080974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>609.2919656049106</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.380680461736849E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.923730427793454E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.440675075980786E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.054813049284373E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.482998594599986E-05</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>25.96380249574339</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>216.883431588175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>414.6780496305468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>174.3406123034517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>660.9321833644385</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>32.4815323313347</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>225.8648552356508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>431.7457072031718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>180.1661455336543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>709.1804090277508</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>40.55818444562661</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>234.7549746179158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>449.3601849110601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>186.1377055782254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>762.3177266337841</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>50.22407434496071</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>243.9735338290818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>468.275032605349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>192.8582006914789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>816.4345184128673</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>61.38593032974544</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>251.7251491260658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>484.5216280296377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>198.9224802008995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>861.3331108246678</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>73.81003791226384</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>255.19448322504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>492.2481647876052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>201.6949537109552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>888.5495742564306</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>87.11604857820774</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>252.4108574692779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>487.5052697515475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>199.0270590550888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>896.022426112767</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100.7845085847201</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>244.6252274335519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>472.7240358825854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>191.6471673186069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>890.1384481224007</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>114.1812368571742</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>236.6185327837144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>457.2571653834736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>183.5746301882052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>884.7263222182805</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>126.6006618217442</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>232.9297206965682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>450.025545941835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>178.8066079100589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>892.0635724026638</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9.747843971849401E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0002569905402516182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.586471590158277E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.561577662248397E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0004099669439168251</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>137.3272763926992</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>233.3122737136237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>450.5530506978029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>177.3260771021956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>911.4993543226554</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>145.7098160889813</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>233.8831354359668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>451.163310600289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>176.009028878311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>932.5525572719729</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>151.238021720639</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>232.5863793695059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>447.6691840529808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>173.2468196292922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>949.4939035392396</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>153.6088711687987</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>230.9317342175754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>442.6724815050463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>170.4113457775007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>966.0501850845787</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>152.769576708198</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>231.1195267504787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>439.8395250511911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>169.3718754976517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>987.7335217617459</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>148.9289155935834</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>233.4611641802971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>439.0492796451704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>170.2816742675544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1015.015864952669</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>142.5354846864098</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>236.6162328954472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>437.4746741568561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>171.8666160696398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1044.310528491685</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>134.2287842468013</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>239.3442167476443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>433.7276260779587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>173.0824148102141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1072.95010231999</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>124.7738866052964</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>241.2053379757587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>429.1971754702543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>173.8053698336743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1100.860501449124</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>114.9908693823733</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>242.3580536429628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>426.2845712078288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>174.5827181997896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1129.773900258263</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.003462522046546E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.001217577890926191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.866528710908816E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0004562511638427668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001986494954870701</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>105.6863478495485</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>243.4874276750739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>426.5987205070186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>176.356325551292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1162.886049673061</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>97.58994076805033</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>245.3448307890692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>430.1143888066061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>179.8192290640762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1202.761173039093</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>91.29653906010687</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>248.0125778864703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>435.2281461203565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>184.5946096373278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1248.009152296511</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>87.21719297930404</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>250.9697858538488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>439.6614274304757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>189.340934664359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1293.507449739028</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>85.545511841674</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>253.8044652499798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>441.8420358161661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>192.8871354054619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1334.86011152275</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>86.24852386419039</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>256.5996936069367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>441.8104719011356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>195.2141495617239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1372.294595308115</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>89.08766481786806</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>259.6213683537567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>440.6702970923556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>197.1263223207356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1409.204477740305</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>93.6672494839102</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>262.7978753486255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>439.3071598914109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>199.1461023689308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1447.419185749783</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>99.49883282733688</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>265.7206762577059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>438.0635200366278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>201.2016523152982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1485.817948576058</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>106.0655818739538</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>268.0700743233685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>437.1741937825102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>203.1039187766742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1522.792782184839</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0001266987142706619</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.004227294082566803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0003263199763974096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.00152160814802251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.006741396112421373</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>112.8736262227387</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>269.897812266047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>436.901897742486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>204.8716412332425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1558.395581165787</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>119.4852264432999</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>271.5253985025495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>437.3172361055103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>206.6623299169485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1593.985648271372</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>125.5363171846985</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>273.2571875903965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>438.1613682969471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>208.5817356636646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1630.553874271505</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>130.7444803329874</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>275.2391906819889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>438.9932667312221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>210.6273198298418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1668.127840202944</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>134.9122049907664</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>277.4659406865317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>439.387829929446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>212.6926688698404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1706.2076983593</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>137.9271174297614</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>279.8073807795761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>439.0144777503672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>214.5604118560453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1744.114545992973</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>139.7588006903667</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>282.0908343345915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>437.7673101142096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>216.0414395541875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1781.364679981742</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>140.4518126234726</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>284.2186424314955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>435.9180608511429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>217.1863107816984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1818.03194822435</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>140.1156113115816</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>286.1934373730234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>433.9983567644073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>218.2595752729633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1854.580594969179</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>138.9128563542916</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>288.0426144292349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>432.4462647247041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>219.4968695378564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1891.422210855087</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0003441814046377426</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.01219273613319103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0009247252825637496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.004038394434289195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0181124921684911</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>137.0473583930225</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>289.7551619357495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>431.3494098316096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>220.9280034485993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1928.737144988214</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>134.7521102013254</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>291.320654999116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>430.5166023428043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>222.4367986915183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1966.560618094086</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>132.2769001563377</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>292.8128161462265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>429.7517977180418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>223.9439450665385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2004.849332353021</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>129.8745239047803</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>294.3720413066134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>428.9782689715209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>225.4599152631598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2043.419199028253</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>127.7848519254672</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>296.0893082550629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>428.1382298216301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>226.9963249157203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2082.00060633393</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>126.21702143512</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>297.9238682701092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>427.0860795181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>228.498402249765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2120.462140897815</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>125.3315150183179</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>299.7494970701439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>425.6684399363793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>229.8833726338872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2158.84823368829</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>125.2251467397401</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>301.475646231909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>423.9051740769767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>231.129567728091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2197.173206202644</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>125.9222962875767</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>303.0977898893879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>422.0049047917726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>232.2979941814827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2235.334277404809</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>127.3747306873557</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>304.6457062137897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>420.1911873639609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>233.4711140189743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2273.258390756657</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0008325733419647427</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.03063270646400837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.002199882709223015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.009113277174858591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.04094062975561748</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>129.4703417663993</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>306.1206974084589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>418.5418147893862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>234.6874735210544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2311.0486760355</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>132.0489956538098</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>307.5053439344609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>416.9946258955866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>235.9346462512937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2348.907363679731</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>134.9222856127589</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>308.8231584628022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>415.4779726659511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>237.1915039756302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2386.922593923561</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>137.893765908686</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>310.1477800480465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>413.9849461150321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>238.4560825575157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2424.999881568738</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>140.7769935186095</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>311.5379364637787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>412.5197568972317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>239.7270735933327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2462.949981602696</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>143.4098389317268</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>312.9751540921653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>411.0194302722945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>240.9741023207543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2500.585283869234</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>145.6645477847524</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>314.3846466351039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>409.3839837998561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>242.1513862470377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2537.795521428351</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>147.4536411120055</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>315.7166621550543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>407.5868320847194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>243.2459203372815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2574.600115277398</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>148.7320252932017</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>316.9821259504038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>405.7079836441678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>244.2930979053029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2611.116235365869</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>149.4957909910845</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>318.2081094206976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>403.8587466121997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>245.3391308721703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2647.399259285221</v>
       </c>
     </row>
   </sheetData>
